--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283467.979688628</v>
+        <v>1277623.844683499</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069179</v>
+        <v>840694.9721069183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>197.0830042719513</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.5991880687411</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>334.0092739682885</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H5" t="n">
-        <v>137.7733697511157</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.66385641544503</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.83903723181706</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>29.47502458765843</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>127.1875377421462</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.98950882173015</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>189.1776513866549</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>158.442456756648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.1170982265958</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>64.38487076055827</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>130.4482050673232</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>27.98702549295235</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>86.37578641821386</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>226.1224112633619</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>29.85990627698255</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>55.13675328819209</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I29" t="n">
         <v>45.37937317040308</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>119.740140031905</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.9995157477953</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>117.0523494389797</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>71.55698534223944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>114.5620921441391</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>28.68313558002655</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>71.21245777054733</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
@@ -3681,7 +3681,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>164.4141282600331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>31.62706233230582</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
@@ -3918,7 +3918,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>57.52460135543104</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.42517457975846</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>32.64252480144148</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.48636361053</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1979.48636361053</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1621.220665003779</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1235.432412405535</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>824.4465076159277</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>406.4826995141145</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321495</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>529.7758821321495</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>529.7758821321495</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>529.7758821321495</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>360.7760818704819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545818</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.523690667317</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1175.523690667317</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>764.5377858777099</v>
+        <v>221.332361886684</v>
       </c>
       <c r="G5" t="n">
-        <v>346.5739777758968</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T7" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U7" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>83.71573392911034</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>83.71573392911034</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5044,22 +5044,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>790.1010928348242</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1639.210958469817</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292078</v>
+        <v>2600.615835417405</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3562.945250846045</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.940766252041</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>993.230885063923</v>
+        <v>393.1261124887499</v>
       </c>
       <c r="C13" t="n">
-        <v>824.2947021360161</v>
+        <v>224.189929560843</v>
       </c>
       <c r="D13" t="n">
-        <v>674.1780627236803</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E13" t="n">
-        <v>526.2649691412872</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F13" t="n">
-        <v>379.3750216433768</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U13" t="n">
-        <v>1913.078649972671</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V13" t="n">
-        <v>1913.078649972671</v>
+        <v>1084.98432649948</v>
       </c>
       <c r="W13" t="n">
-        <v>1623.66147993571</v>
+        <v>795.5671564625197</v>
       </c>
       <c r="X13" t="n">
-        <v>1395.671929037693</v>
+        <v>795.5671564625197</v>
       </c>
       <c r="Y13" t="n">
-        <v>1174.879349894163</v>
+        <v>574.7745773189896</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K14" t="n">
-        <v>739.8723890709491</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L14" t="n">
-        <v>1175.497652300996</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M14" t="n">
-        <v>2136.902529248584</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N14" t="n">
-        <v>3099.231944677224</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O14" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q14" t="n">
         <v>4733.000021926293</v>
@@ -5357,7 +5357,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
         <v>488.1430095111811</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1122.605169488108</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C16" t="n">
-        <v>953.668986560201</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>803.5523471478652</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
-        <v>655.6392535654721</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F16" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.078649972671</v>
+        <v>1437.685582409144</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.078649972671</v>
+        <v>1148.580277951171</v>
       </c>
       <c r="V16" t="n">
-        <v>1913.078649972671</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="W16" t="n">
-        <v>1753.035764359895</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X16" t="n">
-        <v>1525.046213461878</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y16" t="n">
-        <v>1304.253634318348</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="17">
@@ -5518,19 +5518,19 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872424</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P17" t="n">
         <v>4495.258109903959</v>
@@ -5594,7 +5594,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
         <v>488.1430095111811</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.6604390533937</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C19" t="n">
-        <v>392.7242561254868</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D19" t="n">
-        <v>242.6076167131511</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E19" t="n">
-        <v>242.6076167131511</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5706,19 +5706,19 @@
         <v>1913.078649972671</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.192692168029</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.508203962142</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.091033925181</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1014830271636</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.3089038836334</v>
+        <v>1304.253634318348</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>790.1010928348242</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1639.210958469817</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2600.615835417405</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>3562.945250846045</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5831,22 +5831,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
         <v>2436.525948037006</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3100.288343708974</v>
+        <v>438.6248650915608</v>
       </c>
       <c r="C22" t="n">
-        <v>2968.522480004607</v>
+        <v>438.6248650915608</v>
       </c>
       <c r="D22" t="n">
-        <v>2968.522480004607</v>
+        <v>438.6248650915608</v>
       </c>
       <c r="E22" t="n">
-        <v>2968.522480004607</v>
+        <v>438.6248650915608</v>
       </c>
       <c r="F22" t="n">
-        <v>2968.522480004607</v>
+        <v>291.7349175936504</v>
       </c>
       <c r="G22" t="n">
-        <v>2968.522480004607</v>
+        <v>123.9873919353946</v>
       </c>
       <c r="H22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4785.883460762037</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T22" t="n">
-        <v>4563.925901281581</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U22" t="n">
-        <v>4274.820596823608</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V22" t="n">
-        <v>4020.136108617721</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W22" t="n">
-        <v>3730.718938580761</v>
+        <v>887.4069951331082</v>
       </c>
       <c r="X22" t="n">
-        <v>3502.729387682743</v>
+        <v>659.4174442350909</v>
       </c>
       <c r="Y22" t="n">
-        <v>3281.936808539213</v>
+        <v>438.6248650915608</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>765.113734881556</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1200.738998111603</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M23" t="n">
-        <v>1717.125476901286</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N23" t="n">
-        <v>2679.454892329927</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O23" t="n">
-        <v>3542.967633039077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4242.281396253474</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4690.215149029113</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2968.522480004607</v>
+        <v>477.7689794048512</v>
       </c>
       <c r="C25" t="n">
-        <v>2968.522480004607</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D25" t="n">
-        <v>2968.522480004607</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E25" t="n">
-        <v>2968.522480004607</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>4593.418768623295</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T25" t="n">
-        <v>4371.461209142839</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U25" t="n">
-        <v>4143.054733119241</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V25" t="n">
-        <v>3888.370244913354</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W25" t="n">
-        <v>3598.953074876394</v>
+        <v>887.4069951331082</v>
       </c>
       <c r="X25" t="n">
-        <v>3370.963523978377</v>
+        <v>659.4174442350909</v>
       </c>
       <c r="Y25" t="n">
-        <v>3150.170944834847</v>
+        <v>659.4174442350909</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
@@ -6232,13 +6232,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
         <v>4114.52506777933</v>
@@ -6305,7 +6305,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
         <v>488.1430095111811</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3611.351207647403</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C28" t="n">
-        <v>3581.189686155501</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="D28" t="n">
-        <v>3431.073046743166</v>
+        <v>299.3244529877269</v>
       </c>
       <c r="E28" t="n">
-        <v>3283.159953160773</v>
+        <v>151.4113594053338</v>
       </c>
       <c r="F28" t="n">
-        <v>3136.270005662862</v>
+        <v>151.4113594053338</v>
       </c>
       <c r="G28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U28" t="n">
-        <v>4785.883460762037</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V28" t="n">
-        <v>4531.198972556151</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W28" t="n">
-        <v>4241.78180251919</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X28" t="n">
-        <v>4013.792251621173</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y28" t="n">
-        <v>3792.999672477643</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
         <v>1652.105554591511</v>
@@ -6451,10 +6451,10 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6475,7 +6475,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N29" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6542,7 +6542,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
         <v>488.1430095111811</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1122.605169488108</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="C31" t="n">
-        <v>953.668986560201</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="D31" t="n">
-        <v>803.5523471478652</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="E31" t="n">
-        <v>655.6392535654721</v>
+        <v>216.6673056111044</v>
       </c>
       <c r="F31" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T31" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.973345514697</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V31" t="n">
-        <v>1623.973345514697</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W31" t="n">
-        <v>1334.556175477737</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X31" t="n">
-        <v>1334.556175477737</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.253634318348</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="33">
@@ -6779,7 +6779,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
         <v>488.1430095111811</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.935571205723</v>
+        <v>580.3144713837966</v>
       </c>
       <c r="C34" t="n">
-        <v>854.9993882778166</v>
+        <v>411.3782884558896</v>
       </c>
       <c r="D34" t="n">
-        <v>704.8827488654808</v>
+        <v>411.3782884558896</v>
       </c>
       <c r="E34" t="n">
-        <v>556.9696552830877</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F34" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G34" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
         <v>95.71766921524075</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353472</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.656398353472</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.656398353472</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.656398353472</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="X34" t="n">
-        <v>1426.376615179493</v>
+        <v>919.3417469303365</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.584036035963</v>
+        <v>698.5491677868064</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
@@ -6940,22 +6940,22 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4376.290852915656</v>
       </c>
       <c r="Q35" t="n">
         <v>4733.000021926293</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C36" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D36" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F36" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G36" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I36" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>2382.843886476065</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K36" t="n">
-        <v>2686.527881593638</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L36" t="n">
-        <v>3041.882421225839</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M36" t="n">
-        <v>3475.921276158075</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N36" t="n">
-        <v>3935.856492973193</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>4334.387565522181</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P36" t="n">
-        <v>4634.910820119462</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q36" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R36" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S36" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T36" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U36" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V36" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W36" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X36" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y36" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>738.5463968580359</v>
+        <v>582.5180172137391</v>
       </c>
       <c r="C37" t="n">
-        <v>569.610213930129</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="D37" t="n">
-        <v>419.4935745177933</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E37" t="n">
-        <v>271.5804809354001</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F37" t="n">
-        <v>124.6905334374898</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G37" t="n">
         <v>95.71766921524075</v>
@@ -7125,22 +7125,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1913.078649972671</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U37" t="n">
-        <v>1913.078649972671</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="V37" t="n">
-        <v>1658.394161766784</v>
+        <v>1436.436602286327</v>
       </c>
       <c r="W37" t="n">
-        <v>1368.976991729823</v>
+        <v>1147.019432249366</v>
       </c>
       <c r="X37" t="n">
-        <v>1140.987440831806</v>
+        <v>919.0298813513491</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.1948616882756</v>
+        <v>698.237302207819</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7253,7 +7253,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
         <v>488.1430095111811</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1122.605169488108</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="C40" t="n">
-        <v>953.668986560201</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="D40" t="n">
-        <v>803.5523471478652</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="E40" t="n">
-        <v>655.6392535654721</v>
+        <v>482.0114833109827</v>
       </c>
       <c r="F40" t="n">
-        <v>508.7493060675617</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7365,19 +7365,19 @@
         <v>1691.121090492214</v>
       </c>
       <c r="U40" t="n">
-        <v>1691.121090492214</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V40" t="n">
-        <v>1691.121090492214</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W40" t="n">
-        <v>1691.121090492214</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X40" t="n">
-        <v>1525.046213461878</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y40" t="n">
-        <v>1304.253634318348</v>
+        <v>629.9245768933758</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7417,22 +7417,22 @@
         <v>597.708085861203</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496196</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443784</v>
+        <v>1994.738226038838</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7444,19 +7444,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.498874756255</v>
+        <v>579.0158907130842</v>
       </c>
       <c r="C43" t="n">
-        <v>835.498874756255</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D43" t="n">
-        <v>803.5523471478652</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E43" t="n">
-        <v>655.6392535654721</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H43" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1720.613957833929</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U43" t="n">
-        <v>1720.613957833929</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.929469628042</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.929469628042</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.939918730025</v>
+        <v>799.8084698566144</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.147339586495</v>
+        <v>579.0158907130842</v>
       </c>
     </row>
     <row r="44">
@@ -7654,10 +7654,10 @@
         <v>597.708085861203</v>
       </c>
       <c r="L44" t="n">
-        <v>1033.33334909125</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>1994.738226038838</v>
+        <v>1963.204430285879</v>
       </c>
       <c r="N44" t="n">
         <v>2657.180509552854</v>
@@ -7730,22 +7730,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>573.6095969820633</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="C46" t="n">
-        <v>573.6095969820633</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="D46" t="n">
-        <v>423.4929575697275</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E46" t="n">
-        <v>275.5798639873344</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F46" t="n">
-        <v>128.6899164894241</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>128.6899164894241</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>128.6899164894241</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682884</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U46" t="n">
-        <v>1117.711255224911</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V46" t="n">
-        <v>863.0267670190239</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W46" t="n">
-        <v>573.6095969820633</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X46" t="n">
-        <v>573.6095969820633</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y46" t="n">
-        <v>573.6095969820633</v>
+        <v>409.1319977498457</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783531</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>25.23975550835166</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>90.70213529832188</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>143.6003062724708</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,13 +8941,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.62073021233067</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>25.23975550835166</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.21704333048469</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>316.5995337026472</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>120.1689464528317</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880456</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R36" t="n">
         <v>3.419393410990466</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K39" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>134.4306295487279</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>134.4306295487279</v>
+        <v>166.28294849111</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R45" t="n">
         <v>3.419393410990466</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21.42793527606619</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.080541579943</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>30.56033249899727</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>128.080541579943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>111.0971531867977</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>154.1997825915365</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>36.79861603130462</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>117.1613422896117</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956055</v>
@@ -24177,10 +24177,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>80.87103468041397</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0700504016732</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>60.0918401500316</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>137.3869148216453</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>110.9332971134811</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
@@ -24657,7 +24657,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>25.68090799102629</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.5851376042995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>62.77963074295758</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956055</v>
@@ -25125,22 +25125,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>154.1526700467977</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>65.26988803779822</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>137.3869148216466</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
@@ -25365,7 +25365,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>74.20859025238391</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>61.29552712900409</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>116.9884106859065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>168.1850540336061</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>161.4068056021788</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>65.04037749811907</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954698.1591649898</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954698.1591649897</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954698.1591649896</v>
+        <v>954698.1591649895</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954698.1591649897</v>
+        <v>954698.1591649895</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954698.1591649896</v>
+        <v>954698.1591649895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954698.1591649897</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954698.1591649897</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="F2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732474</v>
       </c>
       <c r="G2" t="n">
         <v>455985.6973732471</v>
       </c>
       <c r="H2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="I2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="J2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="K2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="L2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="M2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
       <c r="N2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732473</v>
       </c>
       <c r="O2" t="n">
         <v>455985.6973732471</v>
       </c>
       <c r="P2" t="n">
-        <v>455985.697373247</v>
+        <v>455985.6973732471</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
         <v>708251.0967518282</v>
@@ -26420,22 +26420,22 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>23693.12563581161</v>
+      </c>
+      <c r="F4" t="n">
         <v>23693.12563581162</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23693.12563581161</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="I4" t="n">
         <v>23693.12563581162</v>
@@ -26450,7 +26450,7 @@
         <v>23693.12563581162</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="N4" t="n">
         <v>23693.12563581162</v>
@@ -26524,46 +26524,46 @@
         <v>-392934.5359984208</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161238</v>
+        <v>197033.3432161241</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161238</v>
+        <v>197033.3432161235</v>
       </c>
       <c r="E6" t="n">
-        <v>-371926.238406462</v>
+        <v>-372626.8175498843</v>
       </c>
       <c r="F6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.2792019441</v>
       </c>
       <c r="G6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.2792019438</v>
       </c>
       <c r="H6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.279201944</v>
       </c>
       <c r="I6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.279201944</v>
       </c>
       <c r="J6" t="n">
-        <v>159901.6391527732</v>
+        <v>159201.0600093511</v>
       </c>
       <c r="K6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.279201944</v>
       </c>
       <c r="L6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.279201944</v>
       </c>
       <c r="M6" t="n">
-        <v>206194.6183759569</v>
+        <v>205494.0392325345</v>
       </c>
       <c r="N6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.2792019441</v>
       </c>
       <c r="O6" t="n">
-        <v>336324.8583453663</v>
+        <v>335624.2792019439</v>
       </c>
       <c r="P6" t="n">
-        <v>336324.8583453662</v>
+        <v>335624.2792019438</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>687.498757273107</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>126.8397684924059</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>32.57170077305409</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>31.26361780271901</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>186.1494030132414</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1681237664923</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>23.94594161440355</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.8948044316635</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.9589380589107</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262132</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,25 +35412,25 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051118</v>
+        <v>349.8849021422987</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M11" t="n">
-        <v>612.3046391262852</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
         <v>119.1340348585825</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
@@ -35506,7 +35506,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35649,10 +35649,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>468.2454529064179</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141886</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M14" t="n">
         <v>971.1160373207958</v>
@@ -35661,13 +35661,13 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
         <v>53.4176149856001</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
@@ -35886,22 +35886,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O17" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289183</v>
+        <v>389.1995606412489</v>
       </c>
       <c r="Q17" t="n">
         <v>240.1433454771049</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>349.8849021422987</v>
       </c>
       <c r="L20" t="n">
         <v>857.6867329646391</v>
@@ -36135,7 +36135,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289183</v>
@@ -36144,7 +36144,7 @@
         <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
@@ -36217,7 +36217,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106822</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
         <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141886</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
         <v>972.0499145743842</v>
@@ -36375,13 +36375,13 @@
         <v>872.2350916254038</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
-        <v>96.63465831608478</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
         <v>971.1160373207958</v>
@@ -36609,7 +36609,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P26" t="n">
         <v>384.5788304289183</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
@@ -36843,10 +36843,10 @@
         <v>971.1160373207958</v>
       </c>
       <c r="N29" t="n">
-        <v>851.3025238650473</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289183</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
@@ -37308,25 +37308,25 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O35" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>360.3122919299366</v>
       </c>
       <c r="R35" t="n">
         <v>53.4176149856001</v>
@@ -37387,7 +37387,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197707</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37405,7 +37405,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
@@ -37785,25 +37785,25 @@
         <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M41" t="n">
         <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>669.1336197111279</v>
       </c>
       <c r="O41" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
@@ -37876,7 +37876,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -38022,13 +38022,13 @@
         <v>324.645146633947</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>669.1336197111279</v>
+        <v>700.9859386535101</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254038</v>
@@ -38098,7 +38098,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
@@ -38116,7 +38116,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277623.844683499</v>
+        <v>1281174.404470892</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256415</v>
+        <v>6239134.533256417</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069183</v>
+        <v>840694.9721069175</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>177.2518357947797</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>334.0092739682885</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.78417002079501</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>180.4143915910532</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.66385641544503</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.2527184985269</v>
       </c>
     </row>
     <row r="9">
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>123.8110155523171</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1875377421462</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>189.1776513866549</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>93.72416654080808</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>88.45830473538696</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.38487076055827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16.86931745267334</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>27.98702549295235</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>86.37578641821386</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>26.83369495939603</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.13675328819209</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>87.16941003383407</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.617861616927</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>119.740140031905</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.64400963880345</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.0523494389797</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>49.11400445448422</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.5620921441391</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>15.230749584478</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>71.21245777054733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.37374017675</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>57.52460135543104</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855867</v>
+        <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896378</v>
+        <v>190.9292778896377</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.42517457975846</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545818</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.332361886684</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252749</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4585,7 +4585,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2283.706154680004</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2029.944369318095</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1698.881481974524</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316971</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316971</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>164.4907215210846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5023,46 +5023,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>790.1010928348242</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L11" t="n">
-        <v>1639.210958469817</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M11" t="n">
-        <v>2600.615835417405</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N11" t="n">
-        <v>3562.945250846045</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O11" t="n">
-        <v>4049.465812105077</v>
+        <v>4109.950544869123</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.198854229707</v>
+        <v>4490.683586993752</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4728.425499016086</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5105,13 +5105,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.1261124887499</v>
+        <v>856.1880455474677</v>
       </c>
       <c r="C13" t="n">
-        <v>224.189929560843</v>
+        <v>687.2518626195608</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524075</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524075</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5199,16 +5199,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5217,34 +5217,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T13" t="n">
-        <v>1628.774119163341</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.668814705367</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="V13" t="n">
-        <v>1084.98432649948</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="W13" t="n">
-        <v>795.5671564625197</v>
+        <v>1209.239228316512</v>
       </c>
       <c r="X13" t="n">
-        <v>795.5671564625197</v>
+        <v>981.2496774184951</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.7745773189896</v>
+        <v>981.2496774184951</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
         <v>440.1593205155743</v>
@@ -5278,19 +5278,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935954</v>
+        <v>280.8839136038023</v>
       </c>
       <c r="K14" t="n">
-        <v>597.708085861203</v>
+        <v>923.1865672168631</v>
       </c>
       <c r="L14" t="n">
-        <v>1327.278034693952</v>
+        <v>1772.296432851856</v>
       </c>
       <c r="M14" t="n">
         <v>2288.68291164154</v>
       </c>
       <c r="N14" t="n">
-        <v>3251.012327070181</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O14" t="n">
         <v>4114.52506777933</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5342,13 +5342,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.4651948734965</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="C16" t="n">
-        <v>263.4651948734965</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="D16" t="n">
-        <v>263.4651948734965</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E16" t="n">
-        <v>263.4651948734965</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F16" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5454,34 +5454,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1437.685582409144</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U16" t="n">
-        <v>1148.580277951171</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V16" t="n">
-        <v>893.8957897452837</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W16" t="n">
-        <v>893.8957897452837</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X16" t="n">
-        <v>665.9062388472663</v>
+        <v>985.200811978105</v>
       </c>
       <c r="Y16" t="n">
-        <v>445.1136597037362</v>
+        <v>985.200811978105</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066561</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L17" t="n">
-        <v>1767.721909941649</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M17" t="n">
-        <v>2284.108388731333</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N17" t="n">
-        <v>3246.437804159973</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O17" t="n">
-        <v>4109.950544869122</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P17" t="n">
         <v>4495.258109903959</v>
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5594,22 +5594,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1122.605169488108</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C19" t="n">
-        <v>953.668986560201</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D19" t="n">
-        <v>803.5523471478652</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E19" t="n">
-        <v>655.6392535654721</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5691,34 +5691,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T19" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U19" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V19" t="n">
-        <v>1369.288857308811</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W19" t="n">
-        <v>1369.288857308811</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X19" t="n">
-        <v>1369.288857308811</v>
+        <v>573.609596982064</v>
       </c>
       <c r="Y19" t="n">
-        <v>1304.253634318348</v>
+        <v>352.8170178385338</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>790.1010928348242</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L20" t="n">
-        <v>1639.210958469817</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2600.615835417405</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>3562.945250846045</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O20" t="n">
-        <v>4049.465812105077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="21">
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,22 +5831,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N21" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
         <v>2436.525948037006</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.6248650915608</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="C22" t="n">
-        <v>438.6248650915608</v>
+        <v>280.5049094721564</v>
       </c>
       <c r="D22" t="n">
-        <v>438.6248650915608</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E22" t="n">
-        <v>438.6248650915608</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F22" t="n">
-        <v>291.7349175936504</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9873919353946</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5910,16 +5910,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5928,7 +5928,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
         <v>1913.078649972671</v>
@@ -5937,25 +5937,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U22" t="n">
-        <v>1431.508653375956</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V22" t="n">
-        <v>1176.824165170069</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W22" t="n">
-        <v>887.4069951331082</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X22" t="n">
-        <v>659.4174442350909</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.6248650915608</v>
+        <v>631.0895572303031</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,19 +5989,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K23" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L23" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O23" t="n">
         <v>4114.52506777933</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477.7689794048512</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="C25" t="n">
-        <v>390.5207102955442</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="D25" t="n">
-        <v>390.5207102955442</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E25" t="n">
-        <v>242.6076167131511</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G25" t="n">
         <v>95.71766921524075</v>
@@ -6147,16 +6147,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6165,7 +6165,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
         <v>1913.078649972671</v>
@@ -6174,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.613957833929</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T25" t="n">
-        <v>1720.613957833929</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U25" t="n">
-        <v>1431.508653375956</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V25" t="n">
-        <v>1176.824165170069</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W25" t="n">
-        <v>887.4069951331082</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X25" t="n">
-        <v>659.4174442350909</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y25" t="n">
-        <v>659.4174442350909</v>
+        <v>410.3551423714068</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6226,10 +6226,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L26" t="n">
         <v>1446.817951496196</v>
@@ -6238,7 +6238,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O26" t="n">
         <v>4114.52506777933</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,22 +6305,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>449.4410924000626</v>
+        <v>877.3210582940426</v>
       </c>
       <c r="C28" t="n">
-        <v>449.4410924000626</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="D28" t="n">
-        <v>299.3244529877269</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E28" t="n">
-        <v>151.4113594053338</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F28" t="n">
-        <v>151.4113594053338</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G28" t="n">
         <v>95.71766921524075</v>
@@ -6384,16 +6384,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6402,7 +6402,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
         <v>1913.078649972671</v>
@@ -6414,22 +6414,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1913.078649972671</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U28" t="n">
-        <v>1623.973345514697</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="V28" t="n">
-        <v>1369.288857308811</v>
+        <v>1436.436602286328</v>
       </c>
       <c r="W28" t="n">
-        <v>1079.87168727185</v>
+        <v>1147.019432249367</v>
       </c>
       <c r="X28" t="n">
-        <v>851.8821363738325</v>
+        <v>1147.019432249367</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.0895572303024</v>
+        <v>1058.969523124282</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K29" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443784</v>
+        <v>2483.047833504645</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>3352.75341009274</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6527,13 +6527,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
@@ -6542,22 +6542,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.6673056111044</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C31" t="n">
-        <v>216.6673056111044</v>
+        <v>268.5237018267283</v>
       </c>
       <c r="D31" t="n">
-        <v>216.6673056111044</v>
+        <v>268.5237018267283</v>
       </c>
       <c r="E31" t="n">
-        <v>216.6673056111044</v>
+        <v>120.6106082443351</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>120.6106082443351</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6621,16 +6621,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K31" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6639,7 +6639,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
         <v>1913.078649972671</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353472</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.551093895499</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V31" t="n">
-        <v>954.8666056896124</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526518</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X31" t="n">
-        <v>437.4598847546345</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.6673056111044</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
         <v>440.1593205155742</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
         <v>1446.817951496196</v>
@@ -6712,16 +6712,16 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.52506777933</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6779,22 +6779,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P33" t="n">
         <v>2436.525948037006</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.3144713837966</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="C34" t="n">
-        <v>411.3782884558896</v>
+        <v>460.9883939654696</v>
       </c>
       <c r="D34" t="n">
         <v>411.3782884558896</v>
@@ -6858,16 +6858,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6876,7 +6876,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
         <v>1913.078649972671</v>
@@ -6888,22 +6888,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>1691.121090492214</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U34" t="n">
-        <v>1402.015786034241</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V34" t="n">
-        <v>1147.331297828354</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W34" t="n">
-        <v>1147.331297828354</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X34" t="n">
-        <v>919.3417469303365</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y34" t="n">
-        <v>698.5491677868064</v>
+        <v>629.9245768933765</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591511</v>
@@ -6925,37 +6925,37 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>280.8839136038023</v>
       </c>
       <c r="K35" t="n">
-        <v>918.6120443066561</v>
+        <v>923.1865672168631</v>
       </c>
       <c r="L35" t="n">
-        <v>1767.721909941649</v>
+        <v>1772.296432851856</v>
       </c>
       <c r="M35" t="n">
-        <v>2284.108388731333</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N35" t="n">
-        <v>2813.464348992109</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O35" t="n">
-        <v>3676.977089701259</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P35" t="n">
-        <v>4376.290852915656</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q35" t="n">
         <v>4733.000021926293</v>
@@ -6970,19 +6970,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="36">
@@ -7001,13 +7001,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.5180172137391</v>
+        <v>409.1319977498464</v>
       </c>
       <c r="C37" t="n">
-        <v>413.5818342858322</v>
+        <v>409.1319977498464</v>
       </c>
       <c r="D37" t="n">
-        <v>263.4651948734965</v>
+        <v>259.0153583375106</v>
       </c>
       <c r="E37" t="n">
-        <v>263.4651948734965</v>
+        <v>111.1022647551175</v>
       </c>
       <c r="F37" t="n">
-        <v>263.4651948734965</v>
+        <v>111.1022647551175</v>
       </c>
       <c r="G37" t="n">
         <v>95.71766921524075</v>
@@ -7095,16 +7095,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7113,7 +7113,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
         <v>1913.078649972671</v>
@@ -7125,22 +7125,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1691.121090492214</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U37" t="n">
-        <v>1691.121090492214</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V37" t="n">
-        <v>1436.436602286327</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W37" t="n">
-        <v>1147.019432249366</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X37" t="n">
-        <v>919.0298813513491</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y37" t="n">
-        <v>698.237302207819</v>
+        <v>409.1319977498464</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
         <v>440.1593205155743</v>
@@ -7174,22 +7174,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>597.708085861203</v>
+        <v>604.6058461270948</v>
       </c>
       <c r="L38" t="n">
-        <v>1327.278034693952</v>
+        <v>1453.715711762088</v>
       </c>
       <c r="M38" t="n">
-        <v>2288.68291164154</v>
+        <v>1970.102190551771</v>
       </c>
       <c r="N38" t="n">
-        <v>3251.012327070181</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P38" t="n">
         <v>4495.258109903959</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7238,13 +7238,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
@@ -7253,22 +7253,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P39" t="n">
         <v>2436.525948037006</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>629.9245768933758</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="C40" t="n">
-        <v>629.9245768933758</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="D40" t="n">
-        <v>629.9245768933758</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E40" t="n">
-        <v>482.0114833109827</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7332,16 +7332,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7350,7 +7350,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
         <v>1913.078649972671</v>
@@ -7362,22 +7362,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.121090492214</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U40" t="n">
-        <v>1402.015786034241</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.331297828354</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9141277913932</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X40" t="n">
-        <v>629.9245768933758</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y40" t="n">
-        <v>629.9245768933758</v>
+        <v>410.3551423714068</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L41" t="n">
-        <v>1033.33334909125</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M41" t="n">
-        <v>1994.738226038838</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N41" t="n">
-        <v>2657.180509552854</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O41" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,22 +7490,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439725</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0158907130842</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C43" t="n">
-        <v>410.0797077851773</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D43" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
         <v>95.71766921524075</v>
@@ -7569,16 +7569,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7587,7 +7587,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
         <v>1913.078649972671</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T43" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U43" t="n">
-        <v>1402.015786034241</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V43" t="n">
-        <v>1147.331297828354</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W43" t="n">
-        <v>857.9141277913932</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X43" t="n">
-        <v>799.8084698566144</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y43" t="n">
-        <v>579.0158907130842</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
         <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>1963.204430285879</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168269</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437119</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C46" t="n">
-        <v>390.5207102955442</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D46" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7806,16 +7806,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738839</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239498</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7824,7 +7824,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.135983203279</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U46" t="n">
-        <v>1402.015786034241</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.331297828354</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W46" t="n">
-        <v>857.9141277913932</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X46" t="n">
-        <v>629.9245768933758</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.1319977498457</v>
+        <v>216.667305611105</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>25.23975550835166</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>4.620730212330407</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.620730212330074</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>4.62073021233067</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.23975550835166</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>343.7874912397159</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534082</v>
+        <v>194.3363706804249</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.620730212330074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.1689464528317</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.967434612011687</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>134.4306295487279</v>
+        <v>373.2543023942267</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>166.28294849111</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.02096462962015</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>21.42793527606619</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>30.56033249899727</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>131.9854888482291</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.37367544655034</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.1997825915365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>131.746155565539</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.1613422896117</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>80.87103468041397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>191.7509583926987</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.9332971134811</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>131.4152433182607</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>25.68090799102629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>141.4260407628697</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.77963074295758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>99.50146856372814</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.26988803779822</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>150.8393008171952</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>74.20859025238391</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>1.210913175344814</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.87533298630672</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>168.1850540336061</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.4068056021788</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>28.87533298630672</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954698.1591649896</v>
+        <v>954698.1591649897</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954698.1591649895</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954698.1591649896</v>
+        <v>954698.1591649895</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954698.1591649895</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954698.1591649895</v>
+        <v>954698.1591649896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954698.1591649896</v>
+        <v>954698.1591649897</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
+        <v>455985.6973732471</v>
+      </c>
+      <c r="F2" t="n">
+        <v>455985.6973732471</v>
+      </c>
+      <c r="G2" t="n">
         <v>455985.6973732472</v>
-      </c>
-      <c r="F2" t="n">
-        <v>455985.6973732474</v>
-      </c>
-      <c r="G2" t="n">
-        <v>455985.6973732471</v>
       </c>
       <c r="H2" t="n">
         <v>455985.6973732472</v>
@@ -26337,25 +26337,25 @@
         <v>455985.6973732472</v>
       </c>
       <c r="J2" t="n">
-        <v>455985.6973732472</v>
+        <v>455985.6973732471</v>
       </c>
       <c r="K2" t="n">
-        <v>455985.6973732472</v>
+        <v>455985.6973732471</v>
       </c>
       <c r="L2" t="n">
-        <v>455985.6973732472</v>
+        <v>455985.6973732471</v>
       </c>
       <c r="M2" t="n">
-        <v>455985.6973732472</v>
+        <v>455985.6973732471</v>
       </c>
       <c r="N2" t="n">
-        <v>455985.6973732473</v>
+        <v>455985.697373247</v>
       </c>
       <c r="O2" t="n">
         <v>455985.6973732471</v>
       </c>
       <c r="P2" t="n">
-        <v>455985.6973732471</v>
+        <v>455985.6973732472</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518282</v>
+        <v>708251.0967518283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>23693.12563581161</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581161</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581162</v>
+        <v>23693.1256358116</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-392934.5359984208</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161241</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161235</v>
+        <v>197033.3432161237</v>
       </c>
       <c r="E6" t="n">
-        <v>-372626.8175498843</v>
+        <v>-371996.2963208043</v>
       </c>
       <c r="F6" t="n">
-        <v>335624.2792019441</v>
+        <v>336254.800431024</v>
       </c>
       <c r="G6" t="n">
-        <v>335624.2792019438</v>
+        <v>336254.8004310242</v>
       </c>
       <c r="H6" t="n">
-        <v>335624.279201944</v>
+        <v>336254.8004310241</v>
       </c>
       <c r="I6" t="n">
-        <v>335624.279201944</v>
+        <v>336254.8004310241</v>
       </c>
       <c r="J6" t="n">
-        <v>159201.0600093511</v>
+        <v>159831.5812384311</v>
       </c>
       <c r="K6" t="n">
-        <v>335624.279201944</v>
+        <v>336254.8004310241</v>
       </c>
       <c r="L6" t="n">
-        <v>335624.279201944</v>
+        <v>336254.8004310241</v>
       </c>
       <c r="M6" t="n">
-        <v>205494.0392325345</v>
+        <v>206124.5604616147</v>
       </c>
       <c r="N6" t="n">
-        <v>335624.2792019441</v>
+        <v>336254.8004310239</v>
       </c>
       <c r="O6" t="n">
-        <v>335624.2792019439</v>
+        <v>336254.800431024</v>
       </c>
       <c r="P6" t="n">
-        <v>335624.2792019438</v>
+        <v>336254.8004310241</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712394</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>229.6242099469317</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618412</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.26361780271901</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>36.03392876660462</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1681237664923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>125.6297823812641</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>214.4805104606442</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>23.98522015752673</v>
       </c>
     </row>
     <row r="9">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H12" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L12" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q12" t="n">
         <v>292.4793908967038</v>
@@ -31870,7 +31870,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31913,43 +31913,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O13" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S13" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H15" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L15" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q15" t="n">
         <v>292.4793908967038</v>
@@ -32107,7 +32107,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32150,43 +32150,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O16" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S16" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H18" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L18" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q18" t="n">
         <v>292.4793908967038</v>
@@ -32344,7 +32344,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32387,43 +32387,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O19" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S19" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H21" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L21" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q21" t="n">
         <v>292.4793908967038</v>
@@ -32581,7 +32581,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32624,43 +32624,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O22" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S22" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H24" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L24" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q24" t="n">
         <v>292.4793908967038</v>
@@ -32818,7 +32818,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32861,43 +32861,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O25" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S25" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H27" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L27" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q27" t="n">
         <v>292.4793908967038</v>
@@ -33055,7 +33055,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33098,43 +33098,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O28" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S28" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H30" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L30" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q30" t="n">
         <v>292.4793908967038</v>
@@ -33292,7 +33292,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33335,43 +33335,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O31" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S31" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H33" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L33" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q33" t="n">
         <v>292.4793908967038</v>
@@ -33529,7 +33529,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33572,43 +33572,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O34" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S34" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H36" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L36" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q36" t="n">
         <v>292.4793908967038</v>
@@ -33766,7 +33766,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33809,43 +33809,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O37" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S37" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H39" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L39" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q39" t="n">
         <v>292.4793908967038</v>
@@ -34003,7 +34003,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34046,43 +34046,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O40" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S40" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H42" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L42" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q42" t="n">
         <v>292.4793908967038</v>
@@ -34240,7 +34240,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34283,43 +34283,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O43" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S43" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883998</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515545</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884567</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H45" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690591</v>
+        <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453251</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L45" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q45" t="n">
         <v>292.4793908967038</v>
@@ -34477,7 +34477,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34520,43 +34520,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487557</v>
+        <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597449</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O46" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279596</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450192</v>
+        <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S46" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262132</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
-        <v>349.8849021422987</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626585</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>58.03834519793056</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K13" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M13" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P13" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811663</v>
+        <v>187.0366104934965</v>
       </c>
       <c r="K14" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254038</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R14" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K16" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M16" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P16" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051118</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279633</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P17" t="n">
-        <v>389.1995606412489</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R17" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K19" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M19" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P19" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>349.8849021422987</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626585</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N21" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O21" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K22" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M22" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P22" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K23" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L23" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N24" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O24" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K25" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M25" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P25" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O26" t="n">
-        <v>751.4877009160666</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N27" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K28" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M28" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P28" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K29" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>878.4904814021162</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N30" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O30" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K31" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M31" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P31" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160666</v>
+        <v>685.7712810430836</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N33" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K34" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M34" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P34" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>187.0366104934965</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254038</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.3122919299366</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K37" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M37" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P37" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
-        <v>324.645146633947</v>
+        <v>331.6125812459588</v>
       </c>
       <c r="L38" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K40" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M40" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P40" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207958</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N41" t="n">
-        <v>669.1336197111279</v>
+        <v>907.957292556627</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370096</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K43" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M43" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P43" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279633</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>700.9859386535101</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370096</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709661</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N45" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806878</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K46" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M46" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389736</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604256</v>
       </c>
       <c r="P46" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
